--- a/results/130622-V19.2-1307-2013-Fusion-Co-op.xlsx
+++ b/results/130622-V19.2-1307-2013-Fusion-Co-op.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0baef4825c0f17ed/Dokumente/Frisbee/Rankings/Turniere-berechnet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B3C53-7C69-4E89-B989-95A3AA547D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V19.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">V19.2!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V19.2'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0" shapeId="0">
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H65" authorId="0" shapeId="0">
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="88">
   <si>
     <t/>
   </si>
@@ -581,12 +582,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>Muciaccia, Costantino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1547,10 +1551,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1587,10 +1587,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1627,10 +1623,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1690,18 +1682,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1833,18 +1813,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1873,110 +1841,14 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -2003,143 +1875,275 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2424,17 +2428,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AD86"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y69" sqref="Y69"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2462,325 +2466,325 @@
   <sheetData>
     <row r="1" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="167" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="165"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="133"/>
+      <c r="T2" s="100"/>
     </row>
     <row r="3" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="163"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="133" t="s">
+      <c r="T3" s="100" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="162" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="155"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="133">
+      <c r="T4" s="100">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="146" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="144"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="133"/>
+      <c r="T5" s="100"/>
     </row>
     <row r="6" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="161">
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="122">
         <v>38</v>
       </c>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="159"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="133" t="s">
+      <c r="T6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="158">
+      <c r="U6" s="108">
         <v>6</v>
       </c>
-      <c r="V6" s="158"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="157"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
     </row>
     <row r="7" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="156">
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="125">
         <v>1</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="144"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="121"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="133"/>
+      <c r="T7" s="100"/>
     </row>
     <row r="8" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="152" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150" t="s">
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="155"/>
+      <c r="M8" s="119"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="133"/>
+      <c r="T8" s="100"/>
     </row>
     <row r="9" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="144"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="133"/>
+      <c r="T9" s="100"/>
     </row>
     <row r="10" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="149"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="128"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="133"/>
+      <c r="T10" s="100"/>
     </row>
     <row r="11" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="146">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="114">
         <v>1307</v>
       </c>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="144"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="133"/>
+      <c r="T11" s="100"/>
     </row>
     <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="141">
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="129">
         <v>1507</v>
       </c>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="139"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="133"/>
+      <c r="T12" s="100"/>
     </row>
     <row r="13" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="138"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="136"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="135"/>
       <c r="K13" s="135"/>
       <c r="L13" s="135"/>
-      <c r="M13" s="134"/>
+      <c r="M13" s="136"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="133"/>
+      <c r="T13" s="100"/>
     </row>
     <row r="14" spans="1:25" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-    </row>
-    <row r="15" spans="1:25" s="51" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+    </row>
+    <row r="15" spans="1:25" s="48" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="52"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="49"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
     </row>
     <row r="16" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="97" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="79" t="s">
+      <c r="F16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="95" t="s">
+      <c r="I16" s="47"/>
+      <c r="J16" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="94" t="s">
+      <c r="L16" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="93" t="s">
+      <c r="M16" s="84" t="s">
         <v>5</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="P16" s="92" t="s">
+      <c r="P16" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="90"/>
-      <c r="T16" s="130" t="s">
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
+      <c r="T16" s="97" t="s">
         <v>67</v>
       </c>
       <c r="U16" s="3" t="s">
@@ -2788,28 +2792,28 @@
       </c>
     </row>
     <row r="17" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="46"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="73" t="s">
+      <c r="P17" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="72" t="s">
+      <c r="Q17" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="65" t="s">
         <v>1</v>
       </c>
       <c r="S17" s="4"/>
@@ -2822,49 +2826,49 @@
     </row>
     <row r="18" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="36">
+      <c r="B18" s="143">
         <v>1</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>1</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>1</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <v>13</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="29">
         <v>5</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="30">
+      <c r="J18" s="28">
         <v>125</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="39">
         <v>3.5</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="38">
         <v>42</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <v>170.5</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="41">
         <v>85.25</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S18" s="4" t="s">
@@ -2882,47 +2886,47 @@
     </row>
     <row r="19" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24">
+      <c r="B19" s="144"/>
+      <c r="C19" s="23">
         <v>1</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>57</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>1</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <v>125</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="37">
         <v>3.5</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="36">
         <v>42</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <v>170.5</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="128" t="s">
+      <c r="P19" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="127">
+      <c r="Q19" s="94">
         <v>85.25</v>
       </c>
-      <c r="R19" s="126">
+      <c r="R19" s="93">
         <v>62.5</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -2940,7 +2944,7 @@
     </row>
     <row r="20" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="13">
         <v>1</v>
       </c>
@@ -2963,10 +2967,10 @@
       <c r="J20" s="7">
         <v>125</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <v>3.5</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="34">
         <v>42</v>
       </c>
       <c r="M20" s="6">
@@ -2974,13 +2978,13 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="45" t="s">
+      <c r="P20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="41">
         <v>85.25</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S20" s="4" t="s">
@@ -2998,49 +3002,49 @@
     </row>
     <row r="21" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="36">
+      <c r="B21" s="143">
         <v>2</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>2</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>2</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <v>67</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="29">
         <v>1</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="30">
+      <c r="J21" s="28">
         <v>100</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="39">
         <v>2.5</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="38">
         <v>30</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>132.5</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="128" t="s">
+      <c r="P21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="94">
         <v>66.25</v>
       </c>
-      <c r="R21" s="126" t="s">
+      <c r="R21" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S21" s="4" t="s">
@@ -3058,47 +3062,47 @@
     </row>
     <row r="22" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24">
+      <c r="B22" s="144"/>
+      <c r="C22" s="23">
         <v>2</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>2</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>4</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>10</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>100</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="37">
         <v>2.5</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="36">
         <v>30</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="17">
         <v>132.5</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="41">
         <v>66.25</v>
       </c>
-      <c r="R22" s="43" t="s">
+      <c r="R22" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -3116,7 +3120,7 @@
     </row>
     <row r="23" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="13">
         <v>2</v>
       </c>
@@ -3139,10 +3143,10 @@
       <c r="J23" s="7">
         <v>100</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="35">
         <v>2.5</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="34">
         <v>30</v>
       </c>
       <c r="M23" s="6">
@@ -3150,13 +3154,13 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="128" t="s">
+      <c r="P23" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="127">
+      <c r="Q23" s="94">
         <v>66.25</v>
       </c>
-      <c r="R23" s="126" t="s">
+      <c r="R23" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -3174,49 +3178,49 @@
     </row>
     <row r="24" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="36">
+      <c r="B24" s="143">
         <v>3</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>3</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <v>28</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="29">
         <v>2.5</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="30">
+      <c r="J24" s="28">
         <v>80</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="39">
         <v>2.5</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="38">
         <v>19</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>101.5</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="45" t="s">
+      <c r="P24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="41">
         <v>50.75</v>
       </c>
-      <c r="R24" s="43" t="s">
+      <c r="R24" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -3234,47 +3238,47 @@
     </row>
     <row r="25" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24">
+      <c r="B25" s="144"/>
+      <c r="C25" s="23">
         <v>3</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>53</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>1</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>80</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="37">
         <v>2.5</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="36">
         <v>19</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <v>101.5</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="128" t="s">
+      <c r="P25" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" s="127">
+      <c r="Q25" s="94">
         <v>50.75</v>
       </c>
-      <c r="R25" s="126" t="s">
+      <c r="R25" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -3292,7 +3296,7 @@
     </row>
     <row r="26" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="13">
         <v>3</v>
       </c>
@@ -3315,10 +3319,10 @@
       <c r="J26" s="7">
         <v>80</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="35">
         <v>2.5</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="34">
         <v>19</v>
       </c>
       <c r="M26" s="6">
@@ -3326,13 +3330,13 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="45" t="s">
+      <c r="P26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="41">
         <v>50.75</v>
       </c>
-      <c r="R26" s="43" t="s">
+      <c r="R26" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -3350,49 +3354,49 @@
     </row>
     <row r="27" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="36">
+      <c r="B27" s="143">
         <v>4</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="33">
         <v>4</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="30">
         <v>266</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="29">
         <v>0</v>
       </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="30">
+      <c r="J27" s="28">
         <v>70</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="39">
         <v>3.5</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="38">
         <v>17.5</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <v>91</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="128" t="s">
+      <c r="P27" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" s="127">
+      <c r="Q27" s="94">
         <v>45.5</v>
       </c>
-      <c r="R27" s="126" t="s">
+      <c r="R27" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -3410,47 +3414,47 @@
     </row>
     <row r="28" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24">
+      <c r="B28" s="144"/>
+      <c r="C28" s="23">
         <v>4</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>4</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>86</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>1</v>
       </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>70</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="37">
         <v>3.5</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="36">
         <v>17.5</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <v>91</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="41">
         <v>45.5</v>
       </c>
-      <c r="R28" s="43" t="s">
+      <c r="R28" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -3468,7 +3472,7 @@
     </row>
     <row r="29" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="13">
         <v>4</v>
       </c>
@@ -3491,10 +3495,10 @@
       <c r="J29" s="7">
         <v>70</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="35">
         <v>3.5</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="34">
         <v>17.5</v>
       </c>
       <c r="M29" s="6">
@@ -3502,13 +3506,13 @@
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="128" t="s">
+      <c r="P29" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="Q29" s="127">
+      <c r="Q29" s="94">
         <v>45.5</v>
       </c>
-      <c r="R29" s="126" t="s">
+      <c r="R29" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -3526,49 +3530,49 @@
     </row>
     <row r="30" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="36">
+      <c r="B30" s="143">
         <v>5</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>5</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="30">
         <v>129</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
         <v>0.5</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="30">
+      <c r="J30" s="28">
         <v>60</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="39">
         <v>2.5</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="38">
         <v>16</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <v>78.5</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="41">
         <v>39.25</v>
       </c>
-      <c r="R30" s="43" t="s">
+      <c r="R30" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -3586,47 +3590,47 @@
     </row>
     <row r="31" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24">
+      <c r="B31" s="144"/>
+      <c r="C31" s="23">
         <v>5</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>5</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>171</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>0.5</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="19">
+      <c r="J31" s="18">
         <v>60</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="37">
         <v>2.5</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="36">
         <v>16</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="17">
         <v>78.5</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="128" t="s">
+      <c r="P31" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="127">
+      <c r="Q31" s="94">
         <v>39.25</v>
       </c>
-      <c r="R31" s="126" t="s">
+      <c r="R31" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S31" s="4" t="s">
@@ -3644,7 +3648,7 @@
     </row>
     <row r="32" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="13">
         <v>5</v>
       </c>
@@ -3667,10 +3671,10 @@
       <c r="J32" s="7">
         <v>60</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="35">
         <v>2.5</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="34">
         <v>16</v>
       </c>
       <c r="M32" s="6">
@@ -3678,13 +3682,13 @@
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="45" t="s">
+      <c r="P32" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="41">
         <v>39.25</v>
       </c>
-      <c r="R32" s="43" t="s">
+      <c r="R32" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S32" s="4" t="s">
@@ -3702,49 +3706,49 @@
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="36">
+      <c r="B33" s="143">
         <v>6</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>6</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>6</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="30">
         <v>58</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="29">
         <v>1</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="30">
+      <c r="J33" s="28">
         <v>50</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="39">
         <v>3.5</v>
       </c>
-      <c r="L33" s="41">
-        <v>0</v>
-      </c>
-      <c r="M33" s="29">
+      <c r="L33" s="38">
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
         <v>53.5</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="128" t="s">
+      <c r="P33" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="Q33" s="127">
+      <c r="Q33" s="94">
         <v>26.75</v>
       </c>
-      <c r="R33" s="126" t="s">
+      <c r="R33" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S33" s="4" t="s">
@@ -3762,47 +3766,47 @@
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24">
+      <c r="B34" s="144"/>
+      <c r="C34" s="23">
         <v>6</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>6</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>18</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <v>5</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <v>50</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="37">
         <v>3.5</v>
       </c>
-      <c r="L34" s="39">
-        <v>0</v>
-      </c>
-      <c r="M34" s="18">
+      <c r="L34" s="36">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
         <v>53.5</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="45" t="s">
+      <c r="P34" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="41">
         <v>26.75</v>
       </c>
-      <c r="R34" s="43" t="s">
+      <c r="R34" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S34" s="4" t="s">
@@ -3820,7 +3824,7 @@
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="13">
         <v>6</v>
       </c>
@@ -3843,10 +3847,10 @@
       <c r="J35" s="7">
         <v>50</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="35">
         <v>3.5</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="34">
         <v>0</v>
       </c>
       <c r="M35" s="6">
@@ -3854,13 +3858,13 @@
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="128" t="s">
+      <c r="P35" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="127">
+      <c r="Q35" s="94">
         <v>26.75</v>
       </c>
-      <c r="R35" s="126" t="s">
+      <c r="R35" s="93" t="s">
         <v>0</v>
       </c>
       <c r="S35" s="4" t="s">
@@ -3878,18 +3882,18 @@
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="82"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="76"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3902,29 +3906,29 @@
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61" t="s">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="59" t="s">
+      <c r="G37" s="54"/>
+      <c r="H37" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="53"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="139"/>
       <c r="S37" s="4"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -3932,66 +3936,66 @@
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="125" t="s">
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="122" t="s">
+      <c r="F38" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="122" t="s">
+      <c r="G38" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="124" t="s">
+      <c r="H38" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="81"/>
-      <c r="J38" s="123" t="s">
+      <c r="I38" s="75"/>
+      <c r="J38" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="121" t="s">
+      <c r="L38" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="52"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="120" t="s">
+      <c r="N38" s="49"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="118"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="160"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="109"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="163"/>
       <c r="S39" s="4"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -3999,67 +4003,67 @@
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="109"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="163"/>
       <c r="S40" s="4"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="106"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="103"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="148"/>
       <c r="N41" s="1"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="100"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="165"/>
+      <c r="R41" s="166"/>
     </row>
     <row r="42" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="46"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="43"/>
       <c r="N42" s="1"/>
-      <c r="P42" s="73" t="s">
+      <c r="P42" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="72" t="s">
+      <c r="Q42" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R42" s="71" t="s">
+      <c r="R42" s="65" t="s">
         <v>1</v>
       </c>
       <c r="V42" s="3" t="s">
@@ -4067,48 +4071,48 @@
       </c>
     </row>
     <row r="43" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="36">
+      <c r="B43" s="143">
         <v>1</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="33">
         <v>1</v>
       </c>
-      <c r="D43" s="89">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="D43" s="83">
+        <v>0</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="30">
         <v>58</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="29">
         <v>1</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="29">
+      <c r="J43" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
         <v>0</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="P43" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="43" t="s">
+      <c r="P43" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S43" s="4" t="s">
@@ -4125,46 +4129,46 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="25"/>
-      <c r="C44" s="24">
+      <c r="B44" s="144"/>
+      <c r="C44" s="23">
         <v>1</v>
       </c>
-      <c r="D44" s="88">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23" t="s">
+      <c r="D44" s="82">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="20">
         <v>18</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>5</v>
       </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M44" s="18">
+      <c r="J44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="17">
         <v>0</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="P44" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="26" t="s">
+      <c r="P44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S44" s="4" t="s">
@@ -4177,12 +4181,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="51" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
+    <row r="45" spans="1:25" s="48" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="145"/>
       <c r="C45" s="13">
         <v>1</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="81">
         <v>0</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -4201,10 +4205,10 @@
       <c r="J45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K45" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="37" t="s">
+      <c r="K45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M45" s="6">
@@ -4212,13 +4216,13 @@
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="15" t="s">
+      <c r="P45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S45" s="4" t="s">
@@ -4231,53 +4235,53 @@
       <c r="V45" s="3">
         <v>3.5</v>
       </c>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
     </row>
     <row r="46" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="36">
+      <c r="B46" s="143">
         <v>2</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="33">
         <v>2</v>
       </c>
-      <c r="D46" s="89">
-        <v>0</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="D46" s="83">
+        <v>0</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="32">
+      <c r="G46" s="30">
         <v>13</v>
       </c>
-      <c r="H46" s="31">
+      <c r="H46" s="29">
         <v>5</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L46" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="29">
+      <c r="J46" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="27">
         <v>0</v>
       </c>
       <c r="N46" s="1"/>
-      <c r="P46" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="26" t="s">
+      <c r="P46" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S46" s="4" t="s">
@@ -4294,46 +4298,46 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="25"/>
-      <c r="C47" s="24">
+      <c r="B47" s="144"/>
+      <c r="C47" s="23">
         <v>2</v>
       </c>
-      <c r="D47" s="88">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23" t="s">
+      <c r="D47" s="82">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="20">
         <v>57</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>1</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L47" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="18">
+      <c r="J47" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
         <v>0</v>
       </c>
       <c r="N47" s="1"/>
-      <c r="P47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="15" t="s">
+      <c r="P47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S47" s="4" t="s">
@@ -4347,11 +4351,11 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="13">
         <v>2</v>
       </c>
-      <c r="D48" s="87">
+      <c r="D48" s="81">
         <v>0</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -4370,23 +4374,23 @@
       <c r="J48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K48" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="37" t="s">
+      <c r="K48" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="6">
         <v>0</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="P48" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="26" t="s">
+      <c r="P48" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="4" t="s">
@@ -4400,48 +4404,48 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="36">
+      <c r="B49" s="143">
         <v>3</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="33">
         <v>3</v>
       </c>
-      <c r="D49" s="89">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="D49" s="83">
+        <v>0</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="30">
         <v>266</v>
       </c>
-      <c r="H49" s="31">
+      <c r="H49" s="29">
         <v>0</v>
       </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="29">
+      <c r="J49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="27">
         <v>0</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="P49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="15" t="s">
+      <c r="P49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S49" s="4" t="s">
@@ -4458,46 +4462,46 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="25"/>
-      <c r="C50" s="24">
+      <c r="B50" s="144"/>
+      <c r="C50" s="23">
         <v>3</v>
       </c>
-      <c r="D50" s="88">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23" t="s">
+      <c r="D50" s="82">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="20">
         <v>162</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>0.5</v>
       </c>
       <c r="I50" s="8"/>
-      <c r="J50" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="18">
+      <c r="J50" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="17">
         <v>0</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="P50" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="26" t="s">
+      <c r="P50" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -4511,11 +4515,11 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="13">
         <v>3</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="81">
         <v>0</v>
       </c>
       <c r="E51" s="12" t="s">
@@ -4534,23 +4538,23 @@
       <c r="J51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K51" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="37" t="s">
+      <c r="K51" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="6">
         <v>0</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="P51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="15" t="s">
+      <c r="P51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="4" t="s">
@@ -4564,48 +4568,48 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="36">
+      <c r="B52" s="143">
         <v>4</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>4</v>
       </c>
-      <c r="D52" s="89">
+      <c r="D52" s="83">
         <v>7</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="30">
         <v>155</v>
       </c>
-      <c r="H52" s="31">
+      <c r="H52" s="29">
         <v>0.5</v>
       </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="30">
+      <c r="J52" s="28">
         <v>42.5</v>
       </c>
-      <c r="K52" s="42">
+      <c r="K52" s="39">
         <v>3</v>
       </c>
-      <c r="L52" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="29">
+      <c r="L52" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="27">
         <v>45.5</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="P52" s="28" t="s">
+      <c r="P52" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q52" s="27">
+      <c r="Q52" s="25">
         <v>22.75</v>
       </c>
-      <c r="R52" s="26" t="s">
+      <c r="R52" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S52" s="4" t="s">
@@ -4622,46 +4626,46 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="25"/>
-      <c r="C53" s="24">
+      <c r="B53" s="144"/>
+      <c r="C53" s="23">
         <v>4</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="82">
         <v>7</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>0</v>
       </c>
       <c r="I53" s="8"/>
-      <c r="J53" s="19">
+      <c r="J53" s="18">
         <v>42.5</v>
       </c>
-      <c r="K53" s="40">
+      <c r="K53" s="37">
         <v>3</v>
       </c>
-      <c r="L53" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="18">
+      <c r="L53" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
         <v>45.5</v>
       </c>
       <c r="N53" s="1"/>
-      <c r="P53" s="17" t="s">
+      <c r="P53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q53" s="16">
+      <c r="Q53" s="15">
         <v>22.75</v>
       </c>
-      <c r="R53" s="15" t="s">
+      <c r="R53" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S53" s="4" t="s">
@@ -4675,11 +4679,11 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="13">
         <v>4</v>
       </c>
-      <c r="D54" s="87">
+      <c r="D54" s="81">
         <v>7</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -4698,23 +4702,23 @@
       <c r="J54" s="7">
         <v>42.5</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K54" s="35">
         <v>3</v>
       </c>
-      <c r="L54" s="37" t="s">
+      <c r="L54" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="6">
         <v>45.5</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="P54" s="28" t="s">
+      <c r="P54" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q54" s="27">
+      <c r="Q54" s="25">
         <v>22.75</v>
       </c>
-      <c r="R54" s="26" t="s">
+      <c r="R54" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="4" t="s">
@@ -4728,48 +4732,48 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="36">
+      <c r="B55" s="143">
         <v>5</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>5</v>
       </c>
-      <c r="D55" s="89">
+      <c r="D55" s="83">
         <v>9</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="30">
         <v>124</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="29">
         <v>0.5</v>
       </c>
       <c r="I55" s="8"/>
-      <c r="J55" s="30">
+      <c r="J55" s="28">
         <v>32.5</v>
       </c>
-      <c r="K55" s="42">
+      <c r="K55" s="39">
         <v>1</v>
       </c>
-      <c r="L55" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="29">
+      <c r="L55" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="27">
         <v>33.5</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55" s="15">
         <v>16.75</v>
       </c>
-      <c r="R55" s="15" t="s">
+      <c r="R55" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S55" s="4" t="s">
@@ -4786,46 +4790,46 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="25"/>
-      <c r="C56" s="24">
+      <c r="B56" s="144"/>
+      <c r="C56" s="23">
         <v>5</v>
       </c>
-      <c r="D56" s="88">
+      <c r="D56" s="82">
         <v>9</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="20">
         <v>84</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>1</v>
       </c>
       <c r="I56" s="8"/>
-      <c r="J56" s="19">
+      <c r="J56" s="18">
         <v>32.5</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="37">
         <v>1</v>
       </c>
-      <c r="L56" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="18">
+      <c r="L56" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="17">
         <v>33.5</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="P56" s="28" t="s">
+      <c r="P56" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q56" s="27">
+      <c r="Q56" s="25">
         <v>16.75</v>
       </c>
-      <c r="R56" s="26" t="s">
+      <c r="R56" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S56" s="4" t="s">
@@ -4840,11 +4844,11 @@
     </row>
     <row r="57" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="145"/>
       <c r="C57" s="13">
         <v>5</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="81">
         <v>9</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -4863,10 +4867,10 @@
       <c r="J57" s="7">
         <v>32.5</v>
       </c>
-      <c r="K57" s="38">
+      <c r="K57" s="35">
         <v>1</v>
       </c>
-      <c r="L57" s="37" t="s">
+      <c r="L57" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M57" s="6">
@@ -4874,13 +4878,13 @@
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="17" t="s">
+      <c r="P57" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="15">
         <v>16.75</v>
       </c>
-      <c r="R57" s="15" t="s">
+      <c r="R57" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S57" s="4" t="s">
@@ -4896,49 +4900,49 @@
     </row>
     <row r="58" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="36">
+      <c r="B58" s="143">
         <v>6</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="33">
         <v>6</v>
       </c>
-      <c r="D58" s="89">
+      <c r="D58" s="83">
         <v>11</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="31" t="s">
+      <c r="G58" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="29" t="s">
         <v>0</v>
       </c>
       <c r="I58" s="8"/>
-      <c r="J58" s="30">
+      <c r="J58" s="28">
         <v>24</v>
       </c>
-      <c r="K58" s="42">
+      <c r="K58" s="39">
         <v>1</v>
       </c>
-      <c r="L58" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="29">
+      <c r="L58" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="27">
         <v>25</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="28" t="s">
+      <c r="P58" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q58" s="27">
+      <c r="Q58" s="25">
         <v>12.5</v>
       </c>
-      <c r="R58" s="26" t="s">
+      <c r="R58" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S58" s="4" t="s">
@@ -4956,47 +4960,47 @@
     </row>
     <row r="59" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="24">
+      <c r="B59" s="144"/>
+      <c r="C59" s="23">
         <v>6</v>
       </c>
-      <c r="D59" s="88">
+      <c r="D59" s="82">
         <v>11</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="20" t="s">
+      <c r="G59" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I59" s="8"/>
-      <c r="J59" s="19">
+      <c r="J59" s="18">
         <v>24</v>
       </c>
-      <c r="K59" s="40">
+      <c r="K59" s="37">
         <v>1</v>
       </c>
-      <c r="L59" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="18">
+      <c r="L59" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="17">
         <v>25</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="17" t="s">
+      <c r="P59" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>12.5</v>
       </c>
-      <c r="R59" s="15" t="s">
+      <c r="R59" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S59" s="4" t="s">
@@ -5012,11 +5016,11 @@
     </row>
     <row r="60" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="13">
         <v>6</v>
       </c>
-      <c r="D60" s="87">
+      <c r="D60" s="81">
         <v>11</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -5035,10 +5039,10 @@
       <c r="J60" s="7">
         <v>24</v>
       </c>
-      <c r="K60" s="38">
+      <c r="K60" s="35">
         <v>1</v>
       </c>
-      <c r="L60" s="37" t="s">
+      <c r="L60" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M60" s="6">
@@ -5046,13 +5050,13 @@
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="28" t="s">
+      <c r="P60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q60" s="27">
+      <c r="Q60" s="25">
         <v>12.5</v>
       </c>
-      <c r="R60" s="26" t="s">
+      <c r="R60" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S60" s="4" t="s">
@@ -5068,49 +5072,49 @@
     </row>
     <row r="61" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="36">
+      <c r="B61" s="143">
         <v>7</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>7</v>
       </c>
-      <c r="D61" s="89">
+      <c r="D61" s="83">
         <v>13</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="30">
         <v>125</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="29">
         <v>0.5</v>
       </c>
       <c r="I61" s="8"/>
-      <c r="J61" s="30">
+      <c r="J61" s="28">
         <v>20</v>
       </c>
-      <c r="K61" s="42">
-        <v>0</v>
-      </c>
-      <c r="L61" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="29">
+      <c r="K61" s="39">
+        <v>0</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="27">
         <v>20</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="17" t="s">
+      <c r="P61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="16">
+      <c r="Q61" s="15">
         <v>10</v>
       </c>
-      <c r="R61" s="15" t="s">
+      <c r="R61" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S61" s="4" t="s">
@@ -5128,47 +5132,47 @@
     </row>
     <row r="62" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24">
+      <c r="B62" s="144"/>
+      <c r="C62" s="23">
         <v>7</v>
       </c>
-      <c r="D62" s="88">
+      <c r="D62" s="82">
         <v>13</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="20">
         <v>214</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>0</v>
       </c>
       <c r="I62" s="8"/>
-      <c r="J62" s="19">
+      <c r="J62" s="18">
         <v>20</v>
       </c>
-      <c r="K62" s="40">
-        <v>0</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="18">
+      <c r="K62" s="37">
+        <v>0</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="17">
         <v>20</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="28" t="s">
+      <c r="P62" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Q62" s="27">
+      <c r="Q62" s="25">
         <v>10</v>
       </c>
-      <c r="R62" s="26">
+      <c r="R62" s="24">
         <v>10</v>
       </c>
       <c r="S62" s="4" t="s">
@@ -5184,11 +5188,11 @@
     </row>
     <row r="63" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="145"/>
       <c r="C63" s="13">
         <v>7</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="81">
         <v>13</v>
       </c>
       <c r="E63" s="12" t="s">
@@ -5207,10 +5211,10 @@
       <c r="J63" s="7">
         <v>20</v>
       </c>
-      <c r="K63" s="38">
-        <v>0</v>
-      </c>
-      <c r="L63" s="37" t="s">
+      <c r="K63" s="35">
+        <v>0</v>
+      </c>
+      <c r="L63" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M63" s="6">
@@ -5218,13 +5222,13 @@
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="17" t="s">
+      <c r="P63" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q63" s="16">
+      <c r="Q63" s="15">
         <v>10</v>
       </c>
-      <c r="R63" s="15" t="s">
+      <c r="R63" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S63" s="4" t="s">
@@ -5239,120 +5243,120 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
       <c r="V64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="62" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="61" t="s">
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="59" t="s">
+      <c r="G65" s="54"/>
+      <c r="H65" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="58"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="53"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="137"/>
+      <c r="Q65" s="138"/>
+      <c r="R65" s="139"/>
       <c r="V65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="80" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="97" t="s">
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="79" t="s">
+      <c r="F66" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="79" t="s">
+      <c r="G66" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="96" t="s">
+      <c r="H66" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="50"/>
-      <c r="J66" s="95" t="s">
+      <c r="I66" s="47"/>
+      <c r="J66" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="94" t="s">
+      <c r="K66" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="M66" s="93" t="s">
+      <c r="L66" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="84" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="P66" s="92" t="s">
+      <c r="P66" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="90"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="142"/>
       <c r="V66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="46"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="43"/>
       <c r="N67" s="1"/>
-      <c r="P67" s="73" t="s">
+      <c r="P67" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="Q67" s="72" t="s">
+      <c r="Q67" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="R67" s="71" t="s">
+      <c r="R67" s="65" t="s">
         <v>1</v>
       </c>
       <c r="V67" s="3">
@@ -5360,50 +5364,50 @@
       </c>
     </row>
     <row r="68" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
-      <c r="B68" s="36">
+      <c r="A68" s="57"/>
+      <c r="B68" s="143">
         <v>1</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="33">
         <v>1</v>
       </c>
-      <c r="D68" s="89">
-        <v>0</v>
-      </c>
-      <c r="E68" s="34" t="s">
+      <c r="D68" s="83">
+        <v>0</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F68" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="30">
         <v>67</v>
       </c>
-      <c r="H68" s="31">
+      <c r="H68" s="29">
         <v>1</v>
       </c>
       <c r="I68" s="8"/>
-      <c r="J68" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K68" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L68" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M68" s="29">
+      <c r="J68" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" s="27">
         <v>0</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R68" s="43" t="s">
+      <c r="P68" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R68" s="40" t="s">
         <v>0</v>
       </c>
       <c r="S68" s="4" t="s">
@@ -5420,48 +5424,48 @@
       </c>
     </row>
     <row r="69" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="24">
+      <c r="A69" s="57"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="23">
         <v>1</v>
       </c>
-      <c r="D69" s="88">
-        <v>0</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="D69" s="82">
+        <v>0</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="20">
         <v>4</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="19">
         <v>10</v>
       </c>
       <c r="I69" s="8"/>
-      <c r="J69" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K69" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M69" s="18">
+      <c r="J69" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="17">
         <v>0</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R69" s="26" t="s">
+      <c r="P69" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R69" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S69" s="4" t="s">
@@ -5476,12 +5480,12 @@
       </c>
     </row>
     <row r="70" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="13">
         <v>1</v>
       </c>
-      <c r="D70" s="87">
+      <c r="D70" s="81">
         <v>0</v>
       </c>
       <c r="E70" s="12" t="s">
@@ -5500,10 +5504,10 @@
       <c r="J70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K70" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="37" t="s">
+      <c r="K70" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M70" s="6">
@@ -5511,13 +5515,13 @@
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" s="15" t="s">
+      <c r="P70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S70" s="4" t="s">
@@ -5532,50 +5536,50 @@
       </c>
     </row>
     <row r="71" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
-      <c r="B71" s="36">
+      <c r="A71" s="57"/>
+      <c r="B71" s="143">
         <v>2</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="33">
         <v>2</v>
       </c>
-      <c r="D71" s="89">
-        <v>0</v>
-      </c>
-      <c r="E71" s="34" t="s">
+      <c r="D71" s="83">
+        <v>0</v>
+      </c>
+      <c r="E71" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G71" s="30">
         <v>28</v>
       </c>
-      <c r="H71" s="31">
+      <c r="H71" s="29">
         <v>2.5</v>
       </c>
       <c r="I71" s="8"/>
-      <c r="J71" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K71" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" s="29">
+      <c r="J71" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="27">
         <v>0</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R71" s="26" t="s">
+      <c r="P71" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R71" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S71" s="4" t="s">
@@ -5592,48 +5596,48 @@
       </c>
     </row>
     <row r="72" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="24">
+      <c r="A72" s="57"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="23">
         <v>2</v>
       </c>
-      <c r="D72" s="88">
-        <v>0</v>
-      </c>
-      <c r="E72" s="23" t="s">
+      <c r="D72" s="82">
+        <v>0</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="20">
         <v>53</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="19">
         <v>1</v>
       </c>
       <c r="I72" s="8"/>
-      <c r="J72" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L72" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M72" s="18">
+      <c r="J72" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17">
         <v>0</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R72" s="15" t="s">
+      <c r="P72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R72" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S72" s="4" t="s">
@@ -5648,12 +5652,12 @@
       </c>
     </row>
     <row r="73" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="145"/>
       <c r="C73" s="13">
         <v>2</v>
       </c>
-      <c r="D73" s="87">
+      <c r="D73" s="81">
         <v>0</v>
       </c>
       <c r="E73" s="12" t="s">
@@ -5672,10 +5676,10 @@
       <c r="J73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K73" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L73" s="37" t="s">
+      <c r="K73" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L73" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M73" s="6">
@@ -5683,13 +5687,13 @@
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" s="26" t="s">
+      <c r="P73" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R73" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S73" s="4" t="s">
@@ -5704,50 +5708,50 @@
       </c>
     </row>
     <row r="74" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
-      <c r="B74" s="36">
+      <c r="A74" s="57"/>
+      <c r="B74" s="143">
         <v>3</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="33">
         <v>3</v>
       </c>
-      <c r="D74" s="89">
-        <v>0</v>
-      </c>
-      <c r="E74" s="34" t="s">
+      <c r="D74" s="83">
+        <v>0</v>
+      </c>
+      <c r="E74" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="30">
         <v>129</v>
       </c>
-      <c r="H74" s="31">
+      <c r="H74" s="29">
         <v>0.5</v>
       </c>
       <c r="I74" s="8"/>
-      <c r="J74" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="L74" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M74" s="29">
+      <c r="J74" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M74" s="27">
         <v>0</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" s="15" t="s">
+      <c r="P74" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R74" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S74" s="4" t="s">
@@ -5764,48 +5768,48 @@
       </c>
     </row>
     <row r="75" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="24">
+      <c r="A75" s="57"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="23">
         <v>3</v>
       </c>
-      <c r="D75" s="88">
-        <v>0</v>
-      </c>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="82">
+        <v>0</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="20">
         <v>171</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.5</v>
       </c>
       <c r="I75" s="8"/>
-      <c r="J75" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K75" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L75" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M75" s="18">
+      <c r="J75" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17">
         <v>0</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" s="26" t="s">
+      <c r="P75" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R75" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S75" s="4" t="s">
@@ -5820,12 +5824,12 @@
       </c>
     </row>
     <row r="76" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="13">
         <v>3</v>
       </c>
-      <c r="D76" s="87">
+      <c r="D76" s="81">
         <v>0</v>
       </c>
       <c r="E76" s="12" t="s">
@@ -5844,10 +5848,10 @@
       <c r="J76" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K76" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="L76" s="37" t="s">
+      <c r="K76" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L76" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M76" s="6">
@@ -5855,13 +5859,13 @@
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" s="15" t="s">
+      <c r="P76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R76" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S76" s="4" t="s">
@@ -5876,50 +5880,50 @@
       </c>
     </row>
     <row r="77" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
-      <c r="B77" s="36">
+      <c r="A77" s="57"/>
+      <c r="B77" s="143">
         <v>4</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="33">
         <v>4</v>
       </c>
-      <c r="D77" s="89">
+      <c r="D77" s="83">
         <v>7</v>
       </c>
-      <c r="E77" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="33" t="s">
+      <c r="E77" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="31" t="s">
+      <c r="G77" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="29" t="s">
         <v>0</v>
       </c>
       <c r="I77" s="8"/>
-      <c r="J77" s="30">
+      <c r="J77" s="28">
         <v>42.5</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K77" s="39">
         <v>1.5</v>
       </c>
-      <c r="L77" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M77" s="29">
+      <c r="L77" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M77" s="27">
         <v>44</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="28" t="s">
+      <c r="P77" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="Q77" s="27">
+      <c r="Q77" s="25">
         <v>22</v>
       </c>
-      <c r="R77" s="26" t="s">
+      <c r="R77" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S77" s="4" t="s">
@@ -5936,48 +5940,48 @@
       </c>
     </row>
     <row r="78" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="24">
+      <c r="A78" s="57"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="23">
         <v>4</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="82">
         <v>7</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="20">
         <v>197</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="19">
         <v>0.5</v>
       </c>
       <c r="I78" s="8"/>
-      <c r="J78" s="19">
+      <c r="J78" s="18">
         <v>42.5</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="37">
         <v>1.5</v>
       </c>
-      <c r="L78" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M78" s="18">
+      <c r="L78" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M78" s="17">
         <v>44</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="17" t="s">
+      <c r="P78" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="16">
+      <c r="Q78" s="15">
         <v>22</v>
       </c>
-      <c r="R78" s="15" t="s">
+      <c r="R78" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S78" s="4" t="s">
@@ -5992,12 +5996,12 @@
       </c>
     </row>
     <row r="79" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="145"/>
       <c r="C79" s="13">
         <v>4</v>
       </c>
-      <c r="D79" s="87">
+      <c r="D79" s="81">
         <v>7</v>
       </c>
       <c r="E79" s="12" t="s">
@@ -6016,10 +6020,10 @@
       <c r="J79" s="7">
         <v>42.5</v>
       </c>
-      <c r="K79" s="38">
+      <c r="K79" s="35">
         <v>1.5</v>
       </c>
-      <c r="L79" s="37" t="s">
+      <c r="L79" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M79" s="6">
@@ -6027,13 +6031,13 @@
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="28" t="s">
+      <c r="P79" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q79" s="27">
+      <c r="Q79" s="25">
         <v>22</v>
       </c>
-      <c r="R79" s="26" t="s">
+      <c r="R79" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S79" s="4" t="s">
@@ -6048,50 +6052,50 @@
       </c>
     </row>
     <row r="80" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
-      <c r="B80" s="36">
+      <c r="A80" s="57"/>
+      <c r="B80" s="143">
         <v>5</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="33">
         <v>5</v>
       </c>
-      <c r="D80" s="89">
+      <c r="D80" s="83">
         <v>9</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="32">
+      <c r="G80" s="30">
         <v>104</v>
       </c>
-      <c r="H80" s="31">
+      <c r="H80" s="29">
         <v>0.5</v>
       </c>
       <c r="I80" s="8"/>
-      <c r="J80" s="30">
+      <c r="J80" s="28">
         <v>32.5</v>
       </c>
-      <c r="K80" s="42">
-        <v>0</v>
-      </c>
-      <c r="L80" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M80" s="29">
+      <c r="K80" s="39">
+        <v>0</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M80" s="27">
         <v>32.5</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="17" t="s">
+      <c r="P80" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q80" s="16">
+      <c r="Q80" s="15">
         <v>16.25</v>
       </c>
-      <c r="R80" s="15" t="s">
+      <c r="R80" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S80" s="4" t="s">
@@ -6108,48 +6112,48 @@
       </c>
     </row>
     <row r="81" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="24">
+      <c r="A81" s="57"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="23">
         <v>5</v>
       </c>
-      <c r="D81" s="88">
+      <c r="D81" s="82">
         <v>9</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="20">
         <v>161</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>0.5</v>
       </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="19">
+      <c r="J81" s="18">
         <v>32.5</v>
       </c>
-      <c r="K81" s="40">
-        <v>0</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M81" s="18">
+      <c r="K81" s="37">
+        <v>0</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17">
         <v>32.5</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="28" t="s">
+      <c r="P81" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q81" s="27">
+      <c r="Q81" s="25">
         <v>16.25</v>
       </c>
-      <c r="R81" s="26" t="s">
+      <c r="R81" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S81" s="4" t="s">
@@ -6164,12 +6168,12 @@
       </c>
     </row>
     <row r="82" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="145"/>
       <c r="C82" s="13">
         <v>5</v>
       </c>
-      <c r="D82" s="87">
+      <c r="D82" s="81">
         <v>9</v>
       </c>
       <c r="E82" s="12" t="s">
@@ -6188,10 +6192,10 @@
       <c r="J82" s="7">
         <v>32.5</v>
       </c>
-      <c r="K82" s="38">
-        <v>0</v>
-      </c>
-      <c r="L82" s="37" t="s">
+      <c r="K82" s="35">
+        <v>0</v>
+      </c>
+      <c r="L82" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M82" s="6">
@@ -6199,13 +6203,13 @@
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="17" t="s">
+      <c r="P82" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="16">
+      <c r="Q82" s="15">
         <v>16.25</v>
       </c>
-      <c r="R82" s="15" t="s">
+      <c r="R82" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S82" s="4" t="s">
@@ -6220,50 +6224,50 @@
       </c>
     </row>
     <row r="83" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
-      <c r="B83" s="36">
+      <c r="A83" s="57"/>
+      <c r="B83" s="143">
         <v>6</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="33">
         <v>6</v>
       </c>
-      <c r="D83" s="89">
+      <c r="D83" s="83">
         <v>11</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="33" t="s">
+      <c r="F83" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="G83" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="31">
+      <c r="H83" s="29">
         <v>0</v>
       </c>
       <c r="I83" s="8"/>
-      <c r="J83" s="30">
+      <c r="J83" s="28">
         <v>24</v>
       </c>
-      <c r="K83" s="42">
-        <v>0</v>
-      </c>
-      <c r="L83" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M83" s="29">
+      <c r="K83" s="39">
+        <v>0</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M83" s="27">
         <v>24</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="28" t="s">
+      <c r="P83" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q83" s="27">
+      <c r="Q83" s="25">
         <v>12</v>
       </c>
-      <c r="R83" s="26" t="s">
+      <c r="R83" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S83" s="4" t="s">
@@ -6280,48 +6284,48 @@
       </c>
     </row>
     <row r="84" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24">
+      <c r="A84" s="57"/>
+      <c r="B84" s="144"/>
+      <c r="C84" s="23">
         <v>6</v>
       </c>
-      <c r="D84" s="88">
+      <c r="D84" s="82">
         <v>11</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="20">
         <v>229</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19">
         <v>0</v>
       </c>
       <c r="I84" s="8"/>
-      <c r="J84" s="19">
+      <c r="J84" s="18">
         <v>24</v>
       </c>
-      <c r="K84" s="40">
-        <v>0</v>
-      </c>
-      <c r="L84" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="M84" s="18">
+      <c r="K84" s="37">
+        <v>0</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17">
         <v>24</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="17" t="s">
+      <c r="P84" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q84" s="16">
+      <c r="Q84" s="15">
         <v>12</v>
       </c>
-      <c r="R84" s="15" t="s">
+      <c r="R84" s="14" t="s">
         <v>0</v>
       </c>
       <c r="S84" s="4" t="s">
@@ -6336,12 +6340,12 @@
       </c>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="145"/>
       <c r="C85" s="13">
         <v>6</v>
       </c>
-      <c r="D85" s="87">
+      <c r="D85" s="81">
         <v>11</v>
       </c>
       <c r="E85" s="12" t="s">
@@ -6360,10 +6364,10 @@
       <c r="J85" s="7">
         <v>24</v>
       </c>
-      <c r="K85" s="38">
-        <v>0</v>
-      </c>
-      <c r="L85" s="37" t="s">
+      <c r="K85" s="35">
+        <v>0</v>
+      </c>
+      <c r="L85" s="34" t="s">
         <v>0</v>
       </c>
       <c r="M85" s="6">
@@ -6371,13 +6375,13 @@
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="28" t="s">
+      <c r="P85" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q85" s="27">
+      <c r="Q85" s="25">
         <v>12</v>
       </c>
-      <c r="R85" s="26" t="s">
+      <c r="R85" s="24" t="s">
         <v>0</v>
       </c>
       <c r="S85" s="4" t="s">
@@ -6392,19 +6396,19 @@
       </c>
     </row>
     <row r="86" spans="1:22" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="82"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="76"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6419,27 +6423,24 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -6450,25 +6451,28 @@
     <mergeCell ref="L38:L41"/>
     <mergeCell ref="M38:M41"/>
     <mergeCell ref="P38:R41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
     <mergeCell ref="G38:G41"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:R35 P43:R63 P68:R85">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -6476,34 +6480,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F37 F65">
+    <dataValidation type="list" allowBlank="1" sqref="F37 F65" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H65:I65 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H65:I65 I15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:D15 B37:D37 B65:D65">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15:D15 B37:D37 B65:D65" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E43:E63 E68:E85 E18:E35">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E43:E63 E68:E85 E18:E35" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
